--- a/archivo_salida_success.xlsx
+++ b/archivo_salida_success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -23,7 +23,10 @@
     <t>EMAILS</t>
   </si>
   <si>
-    <t>http://www.tecnonews.info/</t>
+    <t>GEOLOCATION</t>
+  </si>
+  <si>
+    <t>https://www.talent.upc.edu/esp/microsite/show/id/4/?utm_source=3293_tecnonews_tic_esp_15-16_16-17_17-18&amp;utm_medium=banner&amp;utm_campaign=microsite</t>
   </si>
   <si>
     <t>español</t>
@@ -32,16 +35,22 @@
     <t/>
   </si>
   <si>
-    <t>http://www.tecnonews.info/contacta/</t>
+    <t>Barcelona,Spain</t>
   </si>
   <si>
-    <t>tecnonews@tecnonews.info</t>
+    <t>https://www.fibalumni.net/portal/faces/public/cerclefiber/inici</t>
   </si>
   <si>
-    <t>http://www.tecnonews.info/area-empresas/estamos_en_obras</t>
+    <t>cercle@fibalumni.net</t>
   </si>
   <si>
-    <t>http://www.tecnonews.info/noticias/retail_revolution_conference_2017</t>
+    <t>Sant Cugat Del Vallès,Spain</t>
+  </si>
+  <si>
+    <t>http://www.automobilebarcelona.com/visit-connected-hub</t>
+  </si>
+  <si>
+    <t>https://apps.firabcn.es/areavisitante/s129017/en/login?_ga=2.55944301.790519202.1493969013-1290062302.1493122252</t>
   </si>
 </sst>
 </file>
@@ -102,61 +111,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
